--- a/results/eval-metrics.xlsx
+++ b/results/eval-metrics.xlsx
@@ -4,7 +4,7 @@
   <fileVersion appName="xl" lastEdited="5" lowestEdited="5" rupBuild="27729"/>
   <workbookPr showInkAnnotation="0" autoCompressPictures="0"/>
   <bookViews>
-    <workbookView xWindow="11980" yWindow="0" windowWidth="16820" windowHeight="17260" tabRatio="500"/>
+    <workbookView xWindow="11980" yWindow="0" windowWidth="16820" windowHeight="17380" tabRatio="500"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
@@ -19,7 +19,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="33" uniqueCount="32">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="34" uniqueCount="33">
   <si>
     <t>demo-image1</t>
   </si>
@@ -111,10 +111,13 @@
     <t>Hogwarts Express</t>
   </si>
   <si>
-    <t>training_set/21</t>
-  </si>
-  <si>
-    <t>Sunset Blcd</t>
+    <t>training_set/22</t>
+  </si>
+  <si>
+    <t>BLANK BOX</t>
+  </si>
+  <si>
+    <t>Brooklyn Bridge</t>
   </si>
 </sst>
 </file>
@@ -529,10 +532,10 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:G17"/>
+  <dimension ref="A1:G18"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="B1" workbookViewId="0">
-      <selection activeCell="E14" sqref="E14"/>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="H21" sqref="H21"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="15" x14ac:dyDescent="0"/>
@@ -906,18 +909,38 @@
         <v>31</v>
       </c>
       <c r="C17">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="D17">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="E17">
-        <v>4</v>
+        <v>0</v>
       </c>
       <c r="F17">
         <v>0</v>
       </c>
       <c r="G17">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="18" spans="1:7">
+      <c r="B18" t="s">
+        <v>32</v>
+      </c>
+      <c r="C18">
+        <v>1</v>
+      </c>
+      <c r="D18">
+        <v>1</v>
+      </c>
+      <c r="E18">
+        <v>3.5</v>
+      </c>
+      <c r="F18">
+        <v>0</v>
+      </c>
+      <c r="G18">
         <v>1</v>
       </c>
     </row>

--- a/results/eval-metrics.xlsx
+++ b/results/eval-metrics.xlsx
@@ -4,7 +4,7 @@
   <fileVersion appName="xl" lastEdited="5" lowestEdited="5" rupBuild="27729"/>
   <workbookPr showInkAnnotation="0" autoCompressPictures="0"/>
   <bookViews>
-    <workbookView xWindow="11980" yWindow="0" windowWidth="16820" windowHeight="17380" tabRatio="500"/>
+    <workbookView xWindow="60" yWindow="0" windowWidth="28740" windowHeight="17520" tabRatio="500"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
@@ -19,7 +19,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="34" uniqueCount="33">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="35" uniqueCount="34">
   <si>
     <t>demo-image1</t>
   </si>
@@ -118,6 +118,9 @@
   </si>
   <si>
     <t>Brooklyn Bridge</t>
+  </si>
+  <si>
+    <t>Average</t>
   </si>
 </sst>
 </file>
@@ -165,7 +168,7 @@
       <patternFill patternType="gray125"/>
     </fill>
   </fills>
-  <borders count="1">
+  <borders count="5">
     <border>
       <left/>
       <right/>
@@ -173,8 +176,60 @@
       <bottom/>
       <diagonal/>
     </border>
+    <border>
+      <left style="thin">
+        <color auto="1"/>
+      </left>
+      <right style="thin">
+        <color auto="1"/>
+      </right>
+      <top style="thin">
+        <color auto="1"/>
+      </top>
+      <bottom style="thin">
+        <color auto="1"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="thin">
+        <color auto="1"/>
+      </left>
+      <right style="thin">
+        <color auto="1"/>
+      </right>
+      <top style="thin">
+        <color auto="1"/>
+      </top>
+      <bottom/>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="thin">
+        <color auto="1"/>
+      </left>
+      <right style="thin">
+        <color auto="1"/>
+      </right>
+      <top/>
+      <bottom/>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="thin">
+        <color auto="1"/>
+      </left>
+      <right style="thin">
+        <color auto="1"/>
+      </right>
+      <top/>
+      <bottom style="thin">
+        <color auto="1"/>
+      </bottom>
+      <diagonal/>
+    </border>
   </borders>
-  <cellStyleXfs count="11">
+  <cellStyleXfs count="27">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
     <xf numFmtId="0" fontId="2" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
     <xf numFmtId="0" fontId="3" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
@@ -186,23 +241,60 @@
     <xf numFmtId="0" fontId="3" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
     <xf numFmtId="0" fontId="2" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
     <xf numFmtId="0" fontId="3" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
   </cellStyleXfs>
-  <cellXfs count="3">
+  <cellXfs count="8">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1"/>
-    <xf numFmtId="12" fontId="0" fillId="0" borderId="0" xfId="0" quotePrefix="1" applyNumberFormat="1"/>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1"/>
+    <xf numFmtId="12" fontId="0" fillId="0" borderId="1" xfId="0" quotePrefix="1" applyNumberFormat="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="2" xfId="0" applyBorder="1"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="3" xfId="0" applyBorder="1"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="4" xfId="0" applyBorder="1"/>
   </cellXfs>
-  <cellStyles count="11">
+  <cellStyles count="27">
     <cellStyle name="Followed Hyperlink" xfId="2" builtinId="9" hidden="1"/>
     <cellStyle name="Followed Hyperlink" xfId="4" builtinId="9" hidden="1"/>
     <cellStyle name="Followed Hyperlink" xfId="6" builtinId="9" hidden="1"/>
     <cellStyle name="Followed Hyperlink" xfId="8" builtinId="9" hidden="1"/>
     <cellStyle name="Followed Hyperlink" xfId="10" builtinId="9" hidden="1"/>
+    <cellStyle name="Followed Hyperlink" xfId="12" builtinId="9" hidden="1"/>
+    <cellStyle name="Followed Hyperlink" xfId="14" builtinId="9" hidden="1"/>
+    <cellStyle name="Followed Hyperlink" xfId="16" builtinId="9" hidden="1"/>
+    <cellStyle name="Followed Hyperlink" xfId="18" builtinId="9" hidden="1"/>
+    <cellStyle name="Followed Hyperlink" xfId="20" builtinId="9" hidden="1"/>
+    <cellStyle name="Followed Hyperlink" xfId="22" builtinId="9" hidden="1"/>
+    <cellStyle name="Followed Hyperlink" xfId="24" builtinId="9" hidden="1"/>
+    <cellStyle name="Followed Hyperlink" xfId="26" builtinId="9" hidden="1"/>
     <cellStyle name="Hyperlink" xfId="1" builtinId="8" hidden="1"/>
     <cellStyle name="Hyperlink" xfId="3" builtinId="8" hidden="1"/>
     <cellStyle name="Hyperlink" xfId="5" builtinId="8" hidden="1"/>
     <cellStyle name="Hyperlink" xfId="7" builtinId="8" hidden="1"/>
     <cellStyle name="Hyperlink" xfId="9" builtinId="8" hidden="1"/>
+    <cellStyle name="Hyperlink" xfId="11" builtinId="8" hidden="1"/>
+    <cellStyle name="Hyperlink" xfId="13" builtinId="8" hidden="1"/>
+    <cellStyle name="Hyperlink" xfId="15" builtinId="8" hidden="1"/>
+    <cellStyle name="Hyperlink" xfId="17" builtinId="8" hidden="1"/>
+    <cellStyle name="Hyperlink" xfId="19" builtinId="8" hidden="1"/>
+    <cellStyle name="Hyperlink" xfId="21" builtinId="8" hidden="1"/>
+    <cellStyle name="Hyperlink" xfId="23" builtinId="8" hidden="1"/>
+    <cellStyle name="Hyperlink" xfId="25" builtinId="8" hidden="1"/>
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
   </cellStyles>
   <dxfs count="0"/>
@@ -532,416 +624,449 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:G18"/>
+  <dimension ref="A1:G19"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="H21" sqref="H21"/>
+      <selection activeCell="A3" sqref="A3"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="15" x14ac:dyDescent="0"/>
   <cols>
     <col min="1" max="1" width="34.6640625" customWidth="1"/>
     <col min="2" max="2" width="19" customWidth="1"/>
-    <col min="3" max="3" width="12.83203125" customWidth="1"/>
-    <col min="4" max="4" width="12" customWidth="1"/>
+    <col min="3" max="3" width="16.6640625" customWidth="1"/>
+    <col min="4" max="4" width="13.6640625" customWidth="1"/>
     <col min="5" max="5" width="19.5" customWidth="1"/>
     <col min="6" max="6" width="22.6640625" customWidth="1"/>
     <col min="7" max="7" width="17.5" customWidth="1"/>
   </cols>
   <sheetData>
     <row r="1" spans="1:7" s="1" customFormat="1">
-      <c r="A1" s="1" t="s">
+      <c r="A1" s="2" t="s">
         <v>7</v>
       </c>
-      <c r="B1" s="1" t="s">
+      <c r="B1" s="2" t="s">
         <v>8</v>
       </c>
-      <c r="C1" s="1" t="s">
+      <c r="C1" s="2" t="s">
         <v>4</v>
       </c>
-      <c r="D1" s="1" t="s">
+      <c r="D1" s="2" t="s">
         <v>5</v>
       </c>
-      <c r="E1" s="1" t="s">
+      <c r="E1" s="2" t="s">
         <v>6</v>
       </c>
-      <c r="F1" s="1" t="s">
+      <c r="F1" s="2" t="s">
         <v>9</v>
       </c>
-      <c r="G1" s="1" t="s">
+      <c r="G1" s="2" t="s">
         <v>18</v>
       </c>
     </row>
     <row r="2" spans="1:7">
-      <c r="A2" t="s">
-        <v>0</v>
-      </c>
-      <c r="B2" t="s">
-        <v>1</v>
-      </c>
-      <c r="C2">
-        <v>1</v>
-      </c>
-      <c r="D2">
-        <v>1</v>
-      </c>
-      <c r="E2">
-        <v>1</v>
-      </c>
-      <c r="F2">
-        <v>1</v>
-      </c>
-      <c r="G2">
+      <c r="A2" s="5" t="s">
+        <v>0</v>
+      </c>
+      <c r="B2" s="3" t="s">
+        <v>1</v>
+      </c>
+      <c r="C2" s="3">
+        <v>1</v>
+      </c>
+      <c r="D2" s="3">
+        <v>1</v>
+      </c>
+      <c r="E2" s="3">
+        <v>1</v>
+      </c>
+      <c r="F2" s="3">
+        <v>1</v>
+      </c>
+      <c r="G2" s="3">
         <v>1</v>
       </c>
     </row>
     <row r="3" spans="1:7">
-      <c r="B3" t="s">
+      <c r="A3" s="6"/>
+      <c r="B3" s="3" t="s">
         <v>2</v>
       </c>
-      <c r="C3">
-        <v>1</v>
-      </c>
-      <c r="D3">
-        <v>1</v>
-      </c>
-      <c r="E3">
-        <v>0</v>
-      </c>
-      <c r="F3">
-        <v>1</v>
-      </c>
-      <c r="G3">
+      <c r="C3" s="3">
+        <v>1</v>
+      </c>
+      <c r="D3" s="3">
+        <v>1</v>
+      </c>
+      <c r="E3" s="3">
+        <v>0</v>
+      </c>
+      <c r="F3" s="3">
+        <v>1</v>
+      </c>
+      <c r="G3" s="3">
         <v>1</v>
       </c>
     </row>
     <row r="4" spans="1:7">
-      <c r="B4" t="s">
+      <c r="A4" s="7"/>
+      <c r="B4" s="3" t="s">
         <v>3</v>
       </c>
-      <c r="C4">
-        <v>1</v>
-      </c>
-      <c r="D4">
-        <v>1</v>
-      </c>
-      <c r="E4">
+      <c r="C4" s="3">
+        <v>1</v>
+      </c>
+      <c r="D4" s="3">
+        <v>1</v>
+      </c>
+      <c r="E4" s="3">
         <v>2.5</v>
       </c>
-      <c r="F4">
-        <v>1</v>
-      </c>
-      <c r="G4">
+      <c r="F4" s="3">
+        <v>1</v>
+      </c>
+      <c r="G4" s="3">
         <v>1</v>
       </c>
     </row>
     <row r="5" spans="1:7">
-      <c r="A5" t="s">
+      <c r="A5" s="3" t="s">
         <v>10</v>
       </c>
-      <c r="B5" t="s">
+      <c r="B5" s="3" t="s">
         <v>11</v>
       </c>
-      <c r="C5">
-        <v>1</v>
-      </c>
-      <c r="D5">
-        <v>1</v>
-      </c>
-      <c r="E5">
-        <v>1</v>
-      </c>
-      <c r="F5">
-        <v>0</v>
-      </c>
-      <c r="G5">
+      <c r="C5" s="3">
+        <v>1</v>
+      </c>
+      <c r="D5" s="3">
+        <v>1</v>
+      </c>
+      <c r="E5" s="3">
+        <v>1</v>
+      </c>
+      <c r="F5" s="3">
+        <v>0</v>
+      </c>
+      <c r="G5" s="3">
         <v>1</v>
       </c>
     </row>
     <row r="6" spans="1:7">
-      <c r="A6" t="s">
+      <c r="A6" s="5" t="s">
         <v>13</v>
       </c>
-      <c r="B6" t="s">
+      <c r="B6" s="3" t="s">
         <v>12</v>
       </c>
-      <c r="C6">
-        <v>1</v>
-      </c>
-      <c r="D6">
-        <v>1</v>
-      </c>
-      <c r="E6">
-        <v>1</v>
-      </c>
-      <c r="F6">
-        <v>0</v>
-      </c>
-      <c r="G6">
+      <c r="C6" s="3">
+        <v>1</v>
+      </c>
+      <c r="D6" s="3">
+        <v>1</v>
+      </c>
+      <c r="E6" s="3">
+        <v>1</v>
+      </c>
+      <c r="F6" s="3">
+        <v>0</v>
+      </c>
+      <c r="G6" s="3">
         <v>1</v>
       </c>
     </row>
     <row r="7" spans="1:7">
-      <c r="B7" t="s">
+      <c r="A7" s="7"/>
+      <c r="B7" s="3" t="s">
         <v>14</v>
       </c>
-      <c r="C7">
-        <v>0</v>
-      </c>
-      <c r="D7">
-        <v>0</v>
-      </c>
-      <c r="E7">
+      <c r="C7" s="3">
+        <v>0</v>
+      </c>
+      <c r="D7" s="3">
+        <v>0</v>
+      </c>
+      <c r="E7" s="3">
         <v>3</v>
       </c>
-      <c r="F7">
-        <v>0</v>
-      </c>
-      <c r="G7">
+      <c r="F7" s="3">
+        <v>0</v>
+      </c>
+      <c r="G7" s="3">
         <v>1</v>
       </c>
     </row>
     <row r="8" spans="1:7">
-      <c r="A8" t="s">
+      <c r="A8" s="5" t="s">
         <v>15</v>
       </c>
-      <c r="B8" t="s">
+      <c r="B8" s="3" t="s">
         <v>16</v>
       </c>
-      <c r="C8">
-        <v>1</v>
-      </c>
-      <c r="D8">
-        <v>1</v>
-      </c>
-      <c r="E8">
+      <c r="C8" s="3">
+        <v>1</v>
+      </c>
+      <c r="D8" s="3">
+        <v>1</v>
+      </c>
+      <c r="E8" s="3">
         <v>4</v>
       </c>
-      <c r="F8">
-        <v>0</v>
-      </c>
-      <c r="G8">
+      <c r="F8" s="3">
+        <v>0</v>
+      </c>
+      <c r="G8" s="3">
         <v>1</v>
       </c>
     </row>
     <row r="9" spans="1:7">
-      <c r="B9" t="s">
+      <c r="A9" s="7"/>
+      <c r="B9" s="3" t="s">
         <v>17</v>
       </c>
-      <c r="C9">
+      <c r="C9" s="3">
         <v>0.52631578947368396</v>
       </c>
-      <c r="D9">
-        <v>1</v>
-      </c>
-      <c r="E9">
+      <c r="D9" s="3">
+        <v>1</v>
+      </c>
+      <c r="E9" s="3">
         <v>2</v>
       </c>
-      <c r="F9">
-        <v>0</v>
-      </c>
-      <c r="G9">
+      <c r="F9" s="3">
+        <v>0</v>
+      </c>
+      <c r="G9" s="3">
         <v>0</v>
       </c>
     </row>
     <row r="10" spans="1:7">
-      <c r="A10" t="s">
+      <c r="A10" s="3" t="s">
         <v>19</v>
       </c>
-      <c r="B10" t="s">
+      <c r="B10" s="3" t="s">
         <v>20</v>
       </c>
-      <c r="C10">
-        <v>1</v>
-      </c>
-      <c r="D10">
-        <v>1</v>
-      </c>
-      <c r="E10">
+      <c r="C10" s="3">
+        <v>1</v>
+      </c>
+      <c r="D10" s="3">
+        <v>1</v>
+      </c>
+      <c r="E10" s="3">
         <v>3</v>
       </c>
-      <c r="F10">
-        <v>0</v>
-      </c>
-      <c r="G10">
+      <c r="F10" s="3">
+        <v>0</v>
+      </c>
+      <c r="G10" s="3">
         <v>1</v>
       </c>
     </row>
     <row r="11" spans="1:7">
-      <c r="A11" t="s">
+      <c r="A11" s="5" t="s">
         <v>21</v>
       </c>
-      <c r="B11" t="s">
+      <c r="B11" s="3" t="s">
         <v>22</v>
       </c>
-      <c r="C11">
-        <v>1</v>
-      </c>
-      <c r="D11">
-        <v>1</v>
-      </c>
-      <c r="E11">
+      <c r="C11" s="3">
+        <v>1</v>
+      </c>
+      <c r="D11" s="3">
+        <v>1</v>
+      </c>
+      <c r="E11" s="3">
         <v>2.5</v>
       </c>
-      <c r="F11">
+      <c r="F11" s="3">
         <v>0.8</v>
       </c>
-      <c r="G11">
+      <c r="G11" s="3">
         <v>1</v>
       </c>
     </row>
     <row r="12" spans="1:7">
-      <c r="B12" t="s">
+      <c r="A12" s="7"/>
+      <c r="B12" s="3" t="s">
         <v>23</v>
       </c>
-      <c r="C12">
-        <v>1</v>
-      </c>
-      <c r="D12">
+      <c r="C12" s="3">
+        <v>1</v>
+      </c>
+      <c r="D12" s="3">
         <f>14/15</f>
         <v>0.93333333333333335</v>
       </c>
-      <c r="E12">
+      <c r="E12" s="3">
         <v>3</v>
       </c>
-      <c r="F12">
+      <c r="F12" s="3">
         <v>0.8</v>
       </c>
-      <c r="G12">
+      <c r="G12" s="3">
         <v>1</v>
       </c>
     </row>
     <row r="13" spans="1:7">
-      <c r="A13" t="s">
+      <c r="A13" s="3" t="s">
         <v>24</v>
       </c>
-      <c r="B13" t="s">
+      <c r="B13" s="3" t="s">
         <v>25</v>
       </c>
-      <c r="C13">
-        <v>1</v>
-      </c>
-      <c r="D13">
-        <v>1</v>
-      </c>
-      <c r="E13">
+      <c r="C13" s="3">
+        <v>1</v>
+      </c>
+      <c r="D13" s="3">
+        <v>1</v>
+      </c>
+      <c r="E13" s="3">
         <v>4</v>
       </c>
-      <c r="F13">
-        <v>0</v>
-      </c>
-      <c r="G13">
+      <c r="F13" s="3">
+        <v>0</v>
+      </c>
+      <c r="G13" s="3">
         <v>1</v>
       </c>
     </row>
     <row r="14" spans="1:7">
-      <c r="A14" t="s">
+      <c r="A14" s="3" t="s">
         <v>26</v>
       </c>
-      <c r="B14" t="s">
+      <c r="B14" s="3" t="s">
         <v>3</v>
       </c>
-      <c r="C14">
-        <v>1</v>
-      </c>
-      <c r="D14">
-        <v>1</v>
-      </c>
-      <c r="E14">
+      <c r="C14" s="3">
+        <v>1</v>
+      </c>
+      <c r="D14" s="3">
+        <v>1</v>
+      </c>
+      <c r="E14" s="3">
         <v>2</v>
       </c>
-      <c r="F14">
-        <v>1</v>
-      </c>
-      <c r="G14">
+      <c r="F14" s="3">
+        <v>1</v>
+      </c>
+      <c r="G14" s="3">
         <v>1</v>
       </c>
     </row>
     <row r="15" spans="1:7">
-      <c r="A15" t="s">
+      <c r="A15" s="5" t="s">
         <v>27</v>
       </c>
-      <c r="B15" s="2" t="s">
+      <c r="B15" s="4" t="s">
         <v>28</v>
       </c>
-      <c r="C15">
-        <v>1</v>
-      </c>
-      <c r="D15">
-        <v>1</v>
-      </c>
-      <c r="E15">
+      <c r="C15" s="3">
+        <v>1</v>
+      </c>
+      <c r="D15" s="3">
+        <v>1</v>
+      </c>
+      <c r="E15" s="3">
         <v>2</v>
       </c>
-      <c r="F15">
-        <v>0</v>
-      </c>
-      <c r="G15">
+      <c r="F15" s="3">
+        <v>0</v>
+      </c>
+      <c r="G15" s="3">
         <v>1</v>
       </c>
     </row>
     <row r="16" spans="1:7">
-      <c r="B16" t="s">
+      <c r="A16" s="7"/>
+      <c r="B16" s="3" t="s">
         <v>29</v>
       </c>
-      <c r="C16">
-        <v>1</v>
-      </c>
-      <c r="D16">
+      <c r="C16" s="3">
+        <v>1</v>
+      </c>
+      <c r="D16" s="3">
         <f>13/15</f>
         <v>0.8666666666666667</v>
       </c>
-      <c r="E16">
-        <v>0</v>
-      </c>
-      <c r="F16">
+      <c r="E16" s="3">
+        <v>0</v>
+      </c>
+      <c r="F16" s="3">
         <v>0.8</v>
       </c>
-      <c r="G16">
+      <c r="G16" s="3">
         <v>1</v>
       </c>
     </row>
     <row r="17" spans="1:7">
-      <c r="A17" t="s">
+      <c r="A17" s="5" t="s">
         <v>30</v>
       </c>
-      <c r="B17" t="s">
+      <c r="B17" s="3" t="s">
         <v>31</v>
       </c>
-      <c r="C17">
-        <v>0</v>
-      </c>
-      <c r="D17">
-        <v>0</v>
-      </c>
-      <c r="E17">
-        <v>0</v>
-      </c>
-      <c r="F17">
-        <v>0</v>
-      </c>
-      <c r="G17">
+      <c r="C17" s="3">
+        <v>0</v>
+      </c>
+      <c r="D17" s="3">
+        <v>0</v>
+      </c>
+      <c r="E17" s="3">
+        <v>0</v>
+      </c>
+      <c r="F17" s="3">
+        <v>0</v>
+      </c>
+      <c r="G17" s="3">
         <v>0</v>
       </c>
     </row>
     <row r="18" spans="1:7">
-      <c r="B18" t="s">
+      <c r="A18" s="7"/>
+      <c r="B18" s="3" t="s">
         <v>32</v>
       </c>
-      <c r="C18">
-        <v>1</v>
-      </c>
-      <c r="D18">
-        <v>1</v>
-      </c>
-      <c r="E18">
+      <c r="C18" s="3">
+        <v>1</v>
+      </c>
+      <c r="D18" s="3">
+        <v>1</v>
+      </c>
+      <c r="E18" s="3">
         <v>3.5</v>
       </c>
-      <c r="F18">
-        <v>0</v>
-      </c>
-      <c r="G18">
-        <v>1</v>
+      <c r="F18" s="3">
+        <v>0</v>
+      </c>
+      <c r="G18" s="3">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="19" spans="1:7">
+      <c r="A19" s="2" t="s">
+        <v>33</v>
+      </c>
+      <c r="B19" s="3"/>
+      <c r="C19" s="3">
+        <f>AVERAGE(C2:C18)</f>
+        <v>0.8544891640866874</v>
+      </c>
+      <c r="D19" s="3">
+        <f>AVERAGE(D2:D18)</f>
+        <v>0.87058823529411766</v>
+      </c>
+      <c r="E19" s="3">
+        <f>AVERAGE(E2:E18)</f>
+        <v>2.0294117647058822</v>
+      </c>
+      <c r="F19" s="3">
+        <f>AVERAGE(F2:F18)</f>
+        <v>0.37647058823529411</v>
+      </c>
+      <c r="G19" s="3">
+        <f>AVERAGE(G2:G18)</f>
+        <v>0.88235294117647056</v>
       </c>
     </row>
   </sheetData>
